--- a/proposal/dcache/plots/syscall-percentage.xlsx
+++ b/proposal/dcache/plots/syscall-percentage.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiache/Workspace/oscar/dcache-optimization/papers/sosp15/plots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiache/Workspace/oscar/chiache-thesis/proposal/dcache/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -216,7 +219,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.201921133858268"/>
           <c:y val="0.0614620966496835"/>
-          <c:w val="0.712015244094488"/>
+          <c:w val="0.748712500386993"/>
           <c:h val="0.636585907530789"/>
         </c:manualLayout>
       </c:layout>
@@ -776,11 +779,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="100"/>
-        <c:axId val="-2144548464"/>
-        <c:axId val="-2125936256"/>
+        <c:axId val="-2120462784"/>
+        <c:axId val="-2120459456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144548464"/>
+        <c:axId val="-2120462784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,7 +817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125936256"/>
+        <c:crossAx val="-2120459456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -822,7 +825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125936256"/>
+        <c:axId val="-2120459456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -918,7 +921,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144548464"/>
+        <c:crossAx val="-2120462784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -964,7 +967,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2800" b="0" i="0">
+            <a:defRPr sz="2400" b="0" i="0">
               <a:latin typeface="Times New Roman"/>
               <a:ea typeface="Latin Modern Roman 12" charset="0"/>
               <a:cs typeface="Times New Roman"/>
@@ -1020,8 +1023,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
@@ -1903,7 +1906,7 @@
   <dimension ref="A23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
